--- a/quronghui_Table/Class and rest[12.1号] .xlsx
+++ b/quronghui_Table/Class and rest[12.1号] .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2018_hust_files\2018-Hust-Hardware-FIles\quronghui_Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D282AB61-CCA5-458D-8F4E-0D8EE465A4B8}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE00E160-B467-4329-96A1-9DDF55A1BDF1}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="482" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="69">
   <si>
     <t>一</t>
   </si>
@@ -337,6 +337,30 @@
   </si>
   <si>
     <t>7：30-8：00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上午开会</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中午不回寝室了，14：30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>弄AIWAC项目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成，数学真难</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20:10-20:50</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -539,9 +563,24 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="58" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -549,18 +588,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -573,9 +600,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -860,8 +884,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:IW31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="40" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" zoomScalePageLayoutView="40" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -881,19 +905,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="22"/>
-      <c r="L1" s="22"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
       <c r="M1" s="7"/>
     </row>
     <row r="2" spans="2:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -911,16 +935,16 @@
       <c r="I2" s="7"/>
       <c r="J2" s="7"/>
       <c r="K2" s="7"/>
-      <c r="L2" s="18" t="s">
+      <c r="L2" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="18"/>
+      <c r="M2" s="22"/>
     </row>
     <row r="3" spans="2:13" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="24"/>
+      <c r="C3" s="21"/>
       <c r="D3" s="7"/>
       <c r="E3" s="7" t="s">
         <v>0</v>
@@ -943,8 +967,8 @@
       <c r="K3" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="L3" s="18"/>
-      <c r="M3" s="18"/>
+      <c r="L3" s="22"/>
+      <c r="M3" s="22"/>
     </row>
     <row r="4" spans="2:13" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="16"/>
@@ -969,10 +993,10 @@
       <c r="M4" s="15"/>
     </row>
     <row r="5" spans="2:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="19" t="s">
+      <c r="C5" s="24" t="s">
         <v>39</v>
       </c>
       <c r="D5" s="7" t="s">
@@ -981,76 +1005,78 @@
       <c r="E5" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="F5" s="30" t="s">
+      <c r="F5" s="18" t="s">
         <v>53</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="H5" s="30" t="s">
+      <c r="H5" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="I5" s="30" t="s">
+      <c r="I5" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="J5" s="30" t="s">
+      <c r="J5" s="18" t="s">
         <v>58</v>
       </c>
       <c r="K5" s="7"/>
-      <c r="L5" s="25"/>
-      <c r="M5" s="26"/>
+      <c r="L5" s="26"/>
+      <c r="M5" s="27"/>
     </row>
     <row r="6" spans="2:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="18"/>
-      <c r="C6" s="20"/>
+      <c r="B6" s="22"/>
+      <c r="C6" s="25"/>
       <c r="D6" s="7" t="s">
         <v>5</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="30" t="s">
+      <c r="F6" s="18" t="s">
         <v>52</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="H6" s="30" t="s">
+      <c r="H6" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="I6" s="30" t="s">
+      <c r="I6" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="J6" s="30" t="s">
+      <c r="J6" s="18" t="s">
         <v>59</v>
       </c>
       <c r="K6" s="11"/>
-      <c r="L6" s="26"/>
-      <c r="M6" s="26"/>
+      <c r="L6" s="27"/>
+      <c r="M6" s="27"/>
     </row>
     <row r="7" spans="2:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="18"/>
-      <c r="C7" s="20"/>
+      <c r="B7" s="22"/>
+      <c r="C7" s="25"/>
       <c r="D7" s="7" t="s">
         <v>6</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="F7" s="30"/>
+      <c r="F7" s="10" t="s">
+        <v>66</v>
+      </c>
       <c r="G7" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="H7" s="30"/>
-      <c r="I7" s="30"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="18"/>
       <c r="J7" s="7"/>
       <c r="K7" s="7"/>
-      <c r="L7" s="26"/>
-      <c r="M7" s="26"/>
+      <c r="L7" s="27"/>
+      <c r="M7" s="27"/>
     </row>
     <row r="8" spans="2:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="18"/>
-      <c r="C8" s="21" t="s">
+      <c r="B8" s="22"/>
+      <c r="C8" s="23" t="s">
         <v>54</v>
       </c>
       <c r="D8" s="7" t="s">
@@ -1063,50 +1089,54 @@
       <c r="I8" s="15"/>
       <c r="J8" s="10"/>
       <c r="K8" s="10"/>
-      <c r="L8" s="26"/>
-      <c r="M8" s="26"/>
+      <c r="L8" s="27"/>
+      <c r="M8" s="27"/>
     </row>
     <row r="9" spans="2:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="18"/>
-      <c r="C9" s="18"/>
+      <c r="B9" s="22"/>
+      <c r="C9" s="22"/>
       <c r="D9" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E9" s="30" t="s">
+      <c r="E9" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="F9" s="30" t="s">
+      <c r="F9" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="G9" s="30" t="s">
+      <c r="G9" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="H9" s="30" t="s">
+      <c r="H9" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="I9" s="30" t="s">
+      <c r="I9" s="18" t="s">
         <v>42</v>
       </c>
       <c r="J9" s="7"/>
       <c r="K9" s="7"/>
-      <c r="L9" s="26"/>
-      <c r="M9" s="26"/>
+      <c r="L9" s="27"/>
+      <c r="M9" s="27"/>
     </row>
     <row r="10" spans="2:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="18"/>
-      <c r="C10" s="18"/>
+      <c r="B10" s="22"/>
+      <c r="C10" s="22"/>
       <c r="D10" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
+      <c r="E10" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>66</v>
+      </c>
       <c r="G10" s="7"/>
       <c r="H10" s="7"/>
       <c r="I10" s="10"/>
       <c r="J10" s="7"/>
       <c r="K10" s="7"/>
-      <c r="L10" s="26"/>
-      <c r="M10" s="26"/>
+      <c r="L10" s="27"/>
+      <c r="M10" s="27"/>
     </row>
     <row r="11" spans="2:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="7"/>
@@ -1123,126 +1153,134 @@
       <c r="M11" s="12"/>
     </row>
     <row r="12" spans="2:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="18" t="s">
+      <c r="B12" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="21" t="s">
+      <c r="C12" s="23" t="s">
         <v>43</v>
       </c>
       <c r="D12" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E12" s="7"/>
+      <c r="E12" s="7" t="s">
+        <v>64</v>
+      </c>
       <c r="F12" s="10"/>
       <c r="G12" s="10"/>
       <c r="H12" s="10"/>
       <c r="I12" s="10"/>
       <c r="J12" s="11"/>
       <c r="K12" s="11"/>
-      <c r="L12" s="18"/>
-      <c r="M12" s="18"/>
+      <c r="L12" s="22"/>
+      <c r="M12" s="22"/>
     </row>
     <row r="13" spans="2:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="18"/>
-      <c r="C13" s="18"/>
+      <c r="B13" s="22"/>
+      <c r="C13" s="22"/>
       <c r="D13" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E13" s="30" t="s">
+      <c r="E13" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="F13" s="30" t="s">
+      <c r="F13" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="G13" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="G13" s="30" t="s">
+      <c r="H13" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="H13" s="30" t="s">
-        <v>44</v>
-      </c>
-      <c r="I13" s="30" t="s">
+      <c r="I13" s="18" t="s">
         <v>60</v>
       </c>
       <c r="J13" s="7"/>
       <c r="K13" s="7"/>
-      <c r="L13" s="18"/>
-      <c r="M13" s="18"/>
+      <c r="L13" s="22"/>
+      <c r="M13" s="22"/>
     </row>
     <row r="14" spans="2:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="18"/>
-      <c r="C14" s="18"/>
+      <c r="B14" s="22"/>
+      <c r="C14" s="22"/>
       <c r="D14" s="7" t="s">
         <v>6</v>
       </c>
       <c r="E14" s="7"/>
-      <c r="F14" s="13"/>
+      <c r="F14" s="10" t="s">
+        <v>66</v>
+      </c>
       <c r="G14" s="13"/>
       <c r="H14" s="13"/>
       <c r="I14" s="10"/>
       <c r="J14" s="10"/>
       <c r="K14" s="10"/>
-      <c r="L14" s="18"/>
-      <c r="M14" s="18"/>
+      <c r="L14" s="22"/>
+      <c r="M14" s="22"/>
     </row>
     <row r="15" spans="2:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="18"/>
-      <c r="C15" s="21" t="s">
+      <c r="B15" s="22"/>
+      <c r="C15" s="23" t="s">
         <v>45</v>
       </c>
       <c r="D15" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E15" s="10"/>
+      <c r="E15" s="10" t="s">
+        <v>65</v>
+      </c>
       <c r="F15" s="10"/>
       <c r="G15" s="10"/>
       <c r="H15" s="7"/>
       <c r="I15" s="10"/>
       <c r="J15" s="7"/>
       <c r="K15" s="7"/>
-      <c r="L15" s="18"/>
-      <c r="M15" s="18"/>
+      <c r="L15" s="22"/>
+      <c r="M15" s="22"/>
     </row>
     <row r="16" spans="2:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="18"/>
-      <c r="C16" s="18"/>
+      <c r="B16" s="22"/>
+      <c r="C16" s="22"/>
       <c r="D16" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E16" s="30" t="s">
+      <c r="E16" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="F16" s="30" t="s">
+      <c r="F16" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="G16" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="G16" s="30" t="s">
+      <c r="H16" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="H16" s="30" t="s">
-        <v>42</v>
-      </c>
-      <c r="I16" s="30" t="s">
+      <c r="I16" s="18" t="s">
         <v>42</v>
       </c>
       <c r="J16" s="7"/>
       <c r="K16" s="7"/>
-      <c r="L16" s="18"/>
-      <c r="M16" s="18"/>
+      <c r="L16" s="22"/>
+      <c r="M16" s="22"/>
     </row>
     <row r="17" spans="2:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="18"/>
-      <c r="C17" s="18"/>
+      <c r="B17" s="22"/>
+      <c r="C17" s="22"/>
       <c r="D17" s="7" t="s">
         <v>6</v>
       </c>
       <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
+      <c r="F17" s="10" t="s">
+        <v>66</v>
+      </c>
       <c r="G17" s="7"/>
       <c r="H17" s="7"/>
       <c r="I17" s="7"/>
       <c r="J17" s="7"/>
       <c r="K17" s="7"/>
-      <c r="L17" s="18"/>
-      <c r="M17" s="18"/>
+      <c r="L17" s="22"/>
+      <c r="M17" s="22"/>
     </row>
     <row r="18" spans="2:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="7"/>
@@ -1259,10 +1297,10 @@
       <c r="M18" s="7"/>
     </row>
     <row r="19" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="18" t="s">
+      <c r="B19" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="21" t="s">
+      <c r="C19" s="23" t="s">
         <v>46</v>
       </c>
       <c r="D19" s="7" t="s">
@@ -1275,108 +1313,114 @@
       <c r="I19" s="10"/>
       <c r="J19" s="10"/>
       <c r="K19" s="10"/>
-      <c r="L19" s="18"/>
-      <c r="M19" s="18"/>
+      <c r="L19" s="22"/>
+      <c r="M19" s="22"/>
     </row>
     <row r="20" spans="2:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="18"/>
-      <c r="C20" s="18"/>
+      <c r="B20" s="22"/>
+      <c r="C20" s="22"/>
       <c r="D20" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E20" s="30" t="s">
+      <c r="E20" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="F20" s="30" t="s">
-        <v>56</v>
-      </c>
-      <c r="G20" s="30" t="s">
+      <c r="F20" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="G20" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="H20" s="30" t="s">
+      <c r="H20" s="18" t="s">
         <v>56</v>
       </c>
       <c r="I20" s="7"/>
       <c r="J20" s="10"/>
       <c r="K20" s="10"/>
-      <c r="L20" s="18"/>
-      <c r="M20" s="18"/>
+      <c r="L20" s="22"/>
+      <c r="M20" s="22"/>
     </row>
     <row r="21" spans="2:13" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="18"/>
-      <c r="C21" s="18"/>
+      <c r="B21" s="22"/>
+      <c r="C21" s="22"/>
       <c r="D21" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E21" s="10"/>
-      <c r="F21" s="7"/>
+      <c r="E21" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="F21" s="10" t="s">
+        <v>66</v>
+      </c>
       <c r="G21" s="10"/>
       <c r="H21" s="15"/>
       <c r="I21" s="7"/>
       <c r="J21" s="7"/>
       <c r="K21" s="7"/>
-      <c r="L21" s="18"/>
-      <c r="M21" s="18"/>
+      <c r="L21" s="22"/>
+      <c r="M21" s="22"/>
     </row>
     <row r="22" spans="2:13" ht="23.85" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="18"/>
-      <c r="C22" s="19" t="s">
+      <c r="B22" s="22"/>
+      <c r="C22" s="24" t="s">
         <v>47</v>
       </c>
       <c r="D22" s="7" t="s">
         <v>14</v>
       </c>
       <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
+      <c r="F22" s="6" t="s">
+        <v>68</v>
+      </c>
       <c r="G22" s="10"/>
       <c r="H22" s="10"/>
       <c r="I22" s="7"/>
       <c r="J22" s="7"/>
       <c r="K22" s="7"/>
-      <c r="L22" s="18"/>
-      <c r="M22" s="18"/>
+      <c r="L22" s="22"/>
+      <c r="M22" s="22"/>
     </row>
     <row r="23" spans="2:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="18"/>
-      <c r="C23" s="20"/>
+      <c r="B23" s="22"/>
+      <c r="C23" s="25"/>
       <c r="D23" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E23" s="30" t="s">
+      <c r="E23" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="F23" s="30" t="s">
-        <v>55</v>
-      </c>
-      <c r="G23" s="30" t="s">
+      <c r="F23" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="H23" s="30" t="s">
-        <v>55</v>
-      </c>
+      <c r="G23" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="H23" s="18"/>
       <c r="I23" s="7"/>
       <c r="J23" s="7"/>
       <c r="K23" s="7"/>
-      <c r="L23" s="18"/>
-      <c r="M23" s="18"/>
+      <c r="L23" s="22"/>
+      <c r="M23" s="22"/>
     </row>
     <row r="24" spans="2:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="18"/>
-      <c r="C24" s="20"/>
+      <c r="B24" s="22"/>
+      <c r="C24" s="25"/>
       <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
+      <c r="E24" s="10" t="s">
+        <v>67</v>
+      </c>
       <c r="F24" s="10"/>
       <c r="G24" s="10"/>
       <c r="H24" s="10"/>
       <c r="I24" s="7"/>
       <c r="J24" s="7"/>
       <c r="K24" s="7"/>
-      <c r="L24" s="18"/>
-      <c r="M24" s="18"/>
+      <c r="L24" s="22"/>
+      <c r="M24" s="22"/>
     </row>
     <row r="25" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B25" s="18"/>
-      <c r="C25" s="20"/>
+      <c r="B25" s="22"/>
+      <c r="C25" s="25"/>
       <c r="D25" s="7" t="s">
         <v>6</v>
       </c>
@@ -1387,12 +1431,19 @@
       <c r="I25" s="7"/>
       <c r="J25" s="7"/>
       <c r="K25" s="7"/>
-      <c r="L25" s="18"/>
-      <c r="M25" s="18"/>
+      <c r="L25" s="22"/>
+      <c r="M25" s="22"/>
     </row>
     <row r="31" spans="2:13" ht="87.2" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="L19:M25"/>
+    <mergeCell ref="C22:C25"/>
+    <mergeCell ref="B19:B25"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="B5:B10"/>
+    <mergeCell ref="C19:C21"/>
     <mergeCell ref="B1:L1"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="B12:B17"/>
@@ -1402,13 +1453,6 @@
     <mergeCell ref="C8:C10"/>
     <mergeCell ref="C5:C7"/>
     <mergeCell ref="L5:M10"/>
-    <mergeCell ref="L19:M25"/>
-    <mergeCell ref="C22:C25"/>
-    <mergeCell ref="B19:B25"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="B5:B10"/>
-    <mergeCell ref="C19:C21"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1421,7 +1465,7 @@
   <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1436,16 +1480,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="35.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
     </row>
     <row r="2" spans="1:8" ht="35.25" x14ac:dyDescent="0.2">
       <c r="A2" s="14"/>
@@ -1455,7 +1499,7 @@
       <c r="E2" s="14"/>
     </row>
     <row r="3" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="28" t="s">
+      <c r="A3" s="29" t="s">
         <v>24</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -1472,7 +1516,7 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="29"/>
+      <c r="A4" s="30"/>
       <c r="B4" s="3" t="s">
         <v>16</v>
       </c>
@@ -1485,7 +1529,7 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="29"/>
+      <c r="A5" s="30"/>
       <c r="B5" s="3" t="s">
         <v>49</v>
       </c>
@@ -1494,7 +1538,7 @@
       <c r="E5" s="4"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="29"/>
+      <c r="A6" s="30"/>
       <c r="B6" s="3"/>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
@@ -1502,7 +1546,7 @@
     </row>
     <row r="7" spans="1:8" ht="7.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="8" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="28" t="s">
+      <c r="A8" s="29" t="s">
         <v>25</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -1519,7 +1563,7 @@
       </c>
     </row>
     <row r="9" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="28"/>
+      <c r="A9" s="29"/>
       <c r="B9" s="3" t="s">
         <v>50</v>
       </c>
@@ -1528,23 +1572,23 @@
       </c>
     </row>
     <row r="10" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="28"/>
+      <c r="A10" s="29"/>
       <c r="B10" s="3"/>
       <c r="E10" s="4"/>
     </row>
     <row r="11" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="28"/>
+      <c r="A11" s="29"/>
       <c r="B11" s="3"/>
       <c r="E11" s="4"/>
     </row>
     <row r="12" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="28"/>
+      <c r="A12" s="29"/>
       <c r="B12" s="3"/>
       <c r="E12" s="4"/>
     </row>
     <row r="13" spans="1:8" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="14" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="28" t="s">
+      <c r="A14" s="29" t="s">
         <v>32</v>
       </c>
       <c r="B14" s="2" t="s">
@@ -1557,38 +1601,38 @@
       </c>
     </row>
     <row r="15" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="28"/>
+      <c r="A15" s="29"/>
       <c r="B15" s="5" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="28"/>
+      <c r="A16" s="29"/>
       <c r="B16" s="1" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="28"/>
+      <c r="A17" s="29"/>
       <c r="B17" s="1" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="28"/>
+      <c r="A18" s="29"/>
       <c r="B18" s="1" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="28"/>
+      <c r="A19" s="29"/>
       <c r="B19" s="1" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="21" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="28" t="s">
+      <c r="A21" s="29" t="s">
         <v>36</v>
       </c>
       <c r="B21" s="2" t="s">
@@ -1599,7 +1643,7 @@
       <c r="E21" s="2"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="29"/>
+      <c r="A22" s="30"/>
       <c r="B22" s="1" t="s">
         <v>35</v>
       </c>
@@ -1608,7 +1652,7 @@
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="29"/>
+      <c r="A23" s="30"/>
       <c r="B23" s="1" t="s">
         <v>37</v>
       </c>

--- a/quronghui_Table/Class and rest[12.1号] .xlsx
+++ b/quronghui_Table/Class and rest[12.1号] .xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2018_hust_files\2018-Hust-Hardware-FIles\quronghui_Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE00E160-B467-4329-96A1-9DDF55A1BDF1}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B0F17C6-97EB-4DF5-9E1E-FE865CF27293}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="482" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="482" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="课程时间表" sheetId="1" r:id="rId1"/>
-    <sheet name="需要做的" sheetId="2" r:id="rId2"/>
+    <sheet name="12.10" sheetId="4" r:id="rId2"/>
+    <sheet name="需要做的" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="82">
   <si>
     <t>一</t>
   </si>
@@ -336,10 +337,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>7：30-8：00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>上午开会</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -361,6 +358,61 @@
   </si>
   <si>
     <t>20:10-20:50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成，感兴趣的还是放在后面吧，不然后无心学习了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>看了会CBIB，在开会了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在开会了</t>
+  </si>
+  <si>
+    <t>为何早晨还静不下心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成，讨论了一下项目的可行性。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>去公司弄A33</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>没起来</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一直在弄Eagle的操作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>找六级英语作文</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成，绘制原理图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.老爸论文；2.深度学习报告；3.PPT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>英语写作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数学复习</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>武大开会</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -508,7 +560,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -548,9 +600,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -566,26 +615,41 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="58" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="58" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="58" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -884,8 +948,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:IW31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" zoomScalePageLayoutView="40" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" zoomScalePageLayoutView="40" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -905,19 +969,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="27"/>
       <c r="M1" s="7"/>
     </row>
     <row r="2" spans="2:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -935,16 +999,16 @@
       <c r="I2" s="7"/>
       <c r="J2" s="7"/>
       <c r="K2" s="7"/>
-      <c r="L2" s="22" t="s">
+      <c r="L2" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="22"/>
+      <c r="M2" s="23"/>
     </row>
     <row r="3" spans="2:13" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="21"/>
+      <c r="C3" s="29"/>
       <c r="D3" s="7"/>
       <c r="E3" s="7" t="s">
         <v>0</v>
@@ -967,33 +1031,33 @@
       <c r="K3" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="L3" s="22"/>
-      <c r="M3" s="22"/>
+      <c r="L3" s="23"/>
+      <c r="M3" s="23"/>
     </row>
     <row r="4" spans="2:13" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="16"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15" t="s">
+      <c r="B4" s="15"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="F4" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="I4" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="J4" s="15"/>
-      <c r="K4" s="15"/>
-      <c r="L4" s="15"/>
-      <c r="M4" s="15"/>
+      <c r="F4" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="I4" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="J4" s="14"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="14"/>
+      <c r="M4" s="14"/>
     </row>
     <row r="5" spans="2:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="23" t="s">
         <v>7</v>
       </c>
       <c r="C5" s="24" t="s">
@@ -1005,27 +1069,25 @@
       <c r="E5" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="F5" s="18" t="s">
+      <c r="F5" s="17" t="s">
         <v>53</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="H5" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="I5" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="J5" s="18" t="s">
+      <c r="H5" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="I5" s="17"/>
+      <c r="J5" s="17" t="s">
         <v>58</v>
       </c>
       <c r="K5" s="7"/>
-      <c r="L5" s="26"/>
-      <c r="M5" s="27"/>
+      <c r="L5" s="30"/>
+      <c r="M5" s="31"/>
     </row>
     <row r="6" spans="2:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="22"/>
+      <c r="B6" s="23"/>
       <c r="C6" s="25"/>
       <c r="D6" s="7" t="s">
         <v>5</v>
@@ -1033,27 +1095,27 @@
       <c r="E6" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="18" t="s">
+      <c r="F6" s="17" t="s">
         <v>52</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="H6" s="18" t="s">
+      <c r="H6" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="I6" s="18" t="s">
+      <c r="I6" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="J6" s="18" t="s">
+      <c r="J6" s="17" t="s">
         <v>59</v>
       </c>
       <c r="K6" s="11"/>
-      <c r="L6" s="27"/>
-      <c r="M6" s="27"/>
+      <c r="L6" s="31"/>
+      <c r="M6" s="31"/>
     </row>
     <row r="7" spans="2:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="22"/>
+      <c r="B7" s="23"/>
       <c r="C7" s="25"/>
       <c r="D7" s="7" t="s">
         <v>6</v>
@@ -1062,21 +1124,23 @@
         <v>17</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="H7" s="18"/>
-      <c r="I7" s="18"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="10" t="s">
+        <v>65</v>
+      </c>
       <c r="J7" s="7"/>
       <c r="K7" s="7"/>
-      <c r="L7" s="27"/>
-      <c r="M7" s="27"/>
+      <c r="L7" s="31"/>
+      <c r="M7" s="31"/>
     </row>
     <row r="8" spans="2:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="22"/>
-      <c r="C8" s="23" t="s">
+      <c r="B8" s="23"/>
+      <c r="C8" s="26" t="s">
         <v>54</v>
       </c>
       <c r="D8" s="7" t="s">
@@ -1085,58 +1149,62 @@
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="15"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
       <c r="J8" s="10"/>
       <c r="K8" s="10"/>
-      <c r="L8" s="27"/>
-      <c r="M8" s="27"/>
+      <c r="L8" s="31"/>
+      <c r="M8" s="31"/>
     </row>
     <row r="9" spans="2:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="22"/>
-      <c r="C9" s="22"/>
+      <c r="B9" s="23"/>
+      <c r="C9" s="23"/>
       <c r="D9" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E9" s="18" t="s">
+      <c r="E9" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="F9" s="18" t="s">
+      <c r="F9" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="G9" s="18" t="s">
+      <c r="G9" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="H9" s="18" t="s">
+      <c r="H9" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="I9" s="18" t="s">
+      <c r="I9" s="17" t="s">
         <v>42</v>
       </c>
       <c r="J9" s="7"/>
       <c r="K9" s="7"/>
-      <c r="L9" s="27"/>
-      <c r="M9" s="27"/>
+      <c r="L9" s="31"/>
+      <c r="M9" s="31"/>
     </row>
     <row r="10" spans="2:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="22"/>
-      <c r="C10" s="22"/>
+      <c r="B10" s="23"/>
+      <c r="C10" s="23"/>
       <c r="D10" s="7" t="s">
         <v>6</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
+        <v>65</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="H10" s="10" t="s">
+        <v>65</v>
+      </c>
       <c r="I10" s="10"/>
       <c r="J10" s="7"/>
       <c r="K10" s="7"/>
-      <c r="L10" s="27"/>
-      <c r="M10" s="27"/>
+      <c r="L10" s="31"/>
+      <c r="M10" s="31"/>
     </row>
     <row r="11" spans="2:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="7"/>
@@ -1153,17 +1221,17 @@
       <c r="M11" s="12"/>
     </row>
     <row r="12" spans="2:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="22" t="s">
+      <c r="B12" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="23" t="s">
+      <c r="C12" s="26" t="s">
         <v>43</v>
       </c>
       <c r="D12" s="7" t="s">
         <v>14</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F12" s="10"/>
       <c r="G12" s="10"/>
@@ -1171,116 +1239,124 @@
       <c r="I12" s="10"/>
       <c r="J12" s="11"/>
       <c r="K12" s="11"/>
-      <c r="L12" s="22"/>
-      <c r="M12" s="22"/>
+      <c r="L12" s="23"/>
+      <c r="M12" s="23"/>
     </row>
     <row r="13" spans="2:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="22"/>
-      <c r="C13" s="22"/>
+      <c r="B13" s="23"/>
+      <c r="C13" s="23"/>
       <c r="D13" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E13" s="18" t="s">
+      <c r="E13" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="F13" s="18" t="s">
+      <c r="F13" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="G13" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="H13" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="I13" s="18" t="s">
-        <v>60</v>
+      <c r="G13" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="H13" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="I13" s="17" t="s">
+        <v>42</v>
       </c>
       <c r="J13" s="7"/>
       <c r="K13" s="7"/>
-      <c r="L13" s="22"/>
-      <c r="M13" s="22"/>
+      <c r="L13" s="23"/>
+      <c r="M13" s="23"/>
     </row>
     <row r="14" spans="2:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="22"/>
-      <c r="C14" s="22"/>
+      <c r="B14" s="23"/>
+      <c r="C14" s="23"/>
       <c r="D14" s="7" t="s">
         <v>6</v>
       </c>
       <c r="E14" s="7"/>
       <c r="F14" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="10"/>
+        <v>65</v>
+      </c>
+      <c r="G14" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="H14" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="I14" s="17"/>
       <c r="J14" s="10"/>
       <c r="K14" s="10"/>
-      <c r="L14" s="22"/>
-      <c r="M14" s="22"/>
+      <c r="L14" s="23"/>
+      <c r="M14" s="23"/>
     </row>
     <row r="15" spans="2:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="22"/>
-      <c r="C15" s="23" t="s">
+      <c r="B15" s="23"/>
+      <c r="C15" s="26" t="s">
         <v>45</v>
       </c>
       <c r="D15" s="7" t="s">
         <v>14</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="7"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="7" t="s">
+        <v>73</v>
+      </c>
       <c r="I15" s="10"/>
       <c r="J15" s="7"/>
       <c r="K15" s="7"/>
-      <c r="L15" s="22"/>
-      <c r="M15" s="22"/>
+      <c r="L15" s="23"/>
+      <c r="M15" s="23"/>
     </row>
     <row r="16" spans="2:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="22"/>
-      <c r="C16" s="22"/>
+      <c r="B16" s="23"/>
+      <c r="C16" s="23"/>
       <c r="D16" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E16" s="18" t="s">
+      <c r="E16" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="F16" s="18" t="s">
+      <c r="F16" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="G16" s="18" t="s">
+      <c r="G16" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="H16" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="I16" s="18" t="s">
-        <v>42</v>
+      <c r="H16" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="I16" s="17" t="s">
+        <v>60</v>
       </c>
       <c r="J16" s="7"/>
       <c r="K16" s="7"/>
-      <c r="L16" s="22"/>
-      <c r="M16" s="22"/>
+      <c r="L16" s="23"/>
+      <c r="M16" s="23"/>
     </row>
     <row r="17" spans="2:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="22"/>
-      <c r="C17" s="22"/>
+      <c r="B17" s="23"/>
+      <c r="C17" s="23"/>
       <c r="D17" s="7" t="s">
         <v>6</v>
       </c>
       <c r="E17" s="10"/>
       <c r="F17" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="G17" s="7"/>
+        <v>65</v>
+      </c>
+      <c r="G17" s="10" t="s">
+        <v>65</v>
+      </c>
       <c r="H17" s="7"/>
       <c r="I17" s="7"/>
       <c r="J17" s="7"/>
       <c r="K17" s="7"/>
-      <c r="L17" s="22"/>
-      <c r="M17" s="22"/>
+      <c r="L17" s="23"/>
+      <c r="M17" s="23"/>
     </row>
     <row r="18" spans="2:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="7"/>
@@ -1297,10 +1373,10 @@
       <c r="M18" s="7"/>
     </row>
     <row r="19" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="22" t="s">
+      <c r="B19" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="23" t="s">
+      <c r="C19" s="26" t="s">
         <v>46</v>
       </c>
       <c r="D19" s="7" t="s">
@@ -1308,60 +1384,64 @@
       </c>
       <c r="E19" s="10"/>
       <c r="F19" s="7"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="7"/>
+      <c r="G19" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="H19" s="18" t="s">
+        <v>73</v>
+      </c>
       <c r="I19" s="10"/>
       <c r="J19" s="10"/>
       <c r="K19" s="10"/>
-      <c r="L19" s="22"/>
-      <c r="M19" s="22"/>
+      <c r="L19" s="23"/>
+      <c r="M19" s="23"/>
     </row>
     <row r="20" spans="2:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="22"/>
-      <c r="C20" s="22"/>
+      <c r="B20" s="23"/>
+      <c r="C20" s="23"/>
       <c r="D20" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E20" s="18" t="s">
+      <c r="E20" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="F20" s="18" t="s">
+      <c r="F20" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="G20" s="18" t="s">
+      <c r="G20" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="H20" s="18" t="s">
+      <c r="H20" s="17" t="s">
         <v>56</v>
       </c>
       <c r="I20" s="7"/>
       <c r="J20" s="10"/>
       <c r="K20" s="10"/>
-      <c r="L20" s="22"/>
-      <c r="M20" s="22"/>
+      <c r="L20" s="23"/>
+      <c r="M20" s="23"/>
     </row>
     <row r="21" spans="2:13" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="22"/>
-      <c r="C21" s="22"/>
+      <c r="B21" s="23"/>
+      <c r="C21" s="23"/>
       <c r="D21" s="7" t="s">
         <v>6</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F21" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G21" s="10"/>
-      <c r="H21" s="15"/>
+      <c r="H21" s="14"/>
       <c r="I21" s="7"/>
       <c r="J21" s="7"/>
       <c r="K21" s="7"/>
-      <c r="L21" s="22"/>
-      <c r="M21" s="22"/>
+      <c r="L21" s="23"/>
+      <c r="M21" s="23"/>
     </row>
     <row r="22" spans="2:13" ht="23.85" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="22"/>
+      <c r="B22" s="23"/>
       <c r="C22" s="24" t="s">
         <v>47</v>
       </c>
@@ -1370,44 +1450,48 @@
       </c>
       <c r="E22" s="10"/>
       <c r="F22" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="G22" s="10"/>
-      <c r="H22" s="10"/>
+        <v>67</v>
+      </c>
+      <c r="G22" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="H22" s="18" t="s">
+        <v>73</v>
+      </c>
       <c r="I22" s="7"/>
       <c r="J22" s="7"/>
       <c r="K22" s="7"/>
-      <c r="L22" s="22"/>
-      <c r="M22" s="22"/>
+      <c r="L22" s="23"/>
+      <c r="M22" s="23"/>
     </row>
     <row r="23" spans="2:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="22"/>
+      <c r="B23" s="23"/>
       <c r="C23" s="25"/>
       <c r="D23" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E23" s="18" t="s">
+      <c r="E23" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="F23" s="18" t="s">
+      <c r="F23" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="G23" s="18" t="s">
+      <c r="G23" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="H23" s="18"/>
+      <c r="H23" s="17"/>
       <c r="I23" s="7"/>
       <c r="J23" s="7"/>
       <c r="K23" s="7"/>
-      <c r="L23" s="22"/>
-      <c r="M23" s="22"/>
+      <c r="L23" s="23"/>
+      <c r="M23" s="23"/>
     </row>
     <row r="24" spans="2:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="22"/>
+      <c r="B24" s="23"/>
       <c r="C24" s="25"/>
       <c r="D24" s="7"/>
       <c r="E24" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F24" s="10"/>
       <c r="G24" s="10"/>
@@ -1415,11 +1499,11 @@
       <c r="I24" s="7"/>
       <c r="J24" s="7"/>
       <c r="K24" s="7"/>
-      <c r="L24" s="22"/>
-      <c r="M24" s="22"/>
+      <c r="L24" s="23"/>
+      <c r="M24" s="23"/>
     </row>
     <row r="25" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B25" s="22"/>
+      <c r="B25" s="23"/>
       <c r="C25" s="25"/>
       <c r="D25" s="7" t="s">
         <v>6</v>
@@ -1431,19 +1515,12 @@
       <c r="I25" s="7"/>
       <c r="J25" s="7"/>
       <c r="K25" s="7"/>
-      <c r="L25" s="22"/>
-      <c r="M25" s="22"/>
+      <c r="L25" s="23"/>
+      <c r="M25" s="23"/>
     </row>
     <row r="31" spans="2:13" ht="87.2" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="L19:M25"/>
-    <mergeCell ref="C22:C25"/>
-    <mergeCell ref="B19:B25"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="B5:B10"/>
-    <mergeCell ref="C19:C21"/>
     <mergeCell ref="B1:L1"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="B12:B17"/>
@@ -1453,6 +1530,13 @@
     <mergeCell ref="C8:C10"/>
     <mergeCell ref="C5:C7"/>
     <mergeCell ref="L5:M10"/>
+    <mergeCell ref="L19:M25"/>
+    <mergeCell ref="C22:C25"/>
+    <mergeCell ref="B19:B25"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="B5:B10"/>
+    <mergeCell ref="C19:C21"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1461,11 +1545,594 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D929A272-1B46-4821-AB98-E4FADCF067C9}">
+  <dimension ref="A1:IW31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="40" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="4.875" style="6" customWidth="1"/>
+    <col min="2" max="2" width="7.875" style="6" customWidth="1"/>
+    <col min="3" max="3" width="10.625" style="6" customWidth="1"/>
+    <col min="4" max="4" width="6" style="6" customWidth="1"/>
+    <col min="5" max="5" width="31.75" style="6" customWidth="1"/>
+    <col min="6" max="6" width="28" style="6" customWidth="1"/>
+    <col min="7" max="7" width="33.625" style="6" customWidth="1"/>
+    <col min="8" max="8" width="30.375" style="6" customWidth="1"/>
+    <col min="9" max="9" width="28.5" style="6" customWidth="1"/>
+    <col min="10" max="11" width="26.625" style="6" customWidth="1"/>
+    <col min="12" max="257" width="9" style="6" customWidth="1"/>
+    <col min="258" max="16384" width="9" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B1" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="27"/>
+      <c r="M1" s="20"/>
+    </row>
+    <row r="2" spans="2:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="20"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="M2" s="23"/>
+    </row>
+    <row r="3" spans="2:13" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="29"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="F3" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="H3" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="I3" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="J3" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="K3" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="L3" s="23"/>
+      <c r="M3" s="23"/>
+    </row>
+    <row r="4" spans="2:13" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="21"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="G4" s="20"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="20"/>
+      <c r="K4" s="20"/>
+      <c r="L4" s="20"/>
+      <c r="M4" s="20"/>
+    </row>
+    <row r="5" spans="2:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="G5" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="I5" s="17"/>
+      <c r="J5" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="K5" s="20"/>
+      <c r="L5" s="30"/>
+      <c r="M5" s="31"/>
+    </row>
+    <row r="6" spans="2:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="23"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="G6" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="I6" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="J6" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="K6" s="11"/>
+      <c r="L6" s="31"/>
+      <c r="M6" s="31"/>
+    </row>
+    <row r="7" spans="2:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="23"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="G7" s="20"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="20"/>
+      <c r="K7" s="20"/>
+      <c r="L7" s="31"/>
+      <c r="M7" s="31"/>
+    </row>
+    <row r="8" spans="2:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="23"/>
+      <c r="C8" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="D8" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="I8" s="20"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="31"/>
+      <c r="M8" s="31"/>
+    </row>
+    <row r="9" spans="2:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="23"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="F9" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="G9" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="H9" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="I9" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="J9" s="20"/>
+      <c r="K9" s="20"/>
+      <c r="L9" s="31"/>
+      <c r="M9" s="31"/>
+    </row>
+    <row r="10" spans="2:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="23"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="20"/>
+      <c r="K10" s="20"/>
+      <c r="L10" s="31"/>
+      <c r="M10" s="31"/>
+    </row>
+    <row r="11" spans="2:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="20"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="20"/>
+      <c r="K11" s="20"/>
+      <c r="L11" s="22"/>
+      <c r="M11" s="22"/>
+    </row>
+    <row r="12" spans="2:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="D12" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" s="20"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="23"/>
+      <c r="M12" s="23"/>
+    </row>
+    <row r="13" spans="2:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="23"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="E13" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="G13" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="H13" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="I13" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="J13" s="20"/>
+      <c r="K13" s="20"/>
+      <c r="L13" s="23"/>
+      <c r="M13" s="23"/>
+    </row>
+    <row r="14" spans="2:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="23"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="G14" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="H14" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="I14" s="17"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="10"/>
+      <c r="L14" s="23"/>
+      <c r="M14" s="23"/>
+    </row>
+    <row r="15" spans="2:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="23"/>
+      <c r="C15" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="D15" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="F15" s="10"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="20"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="20"/>
+      <c r="K15" s="20"/>
+      <c r="L15" s="23"/>
+      <c r="M15" s="23"/>
+    </row>
+    <row r="16" spans="2:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="23"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="E16" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="F16" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="G16" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="H16" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="I16" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="J16" s="20"/>
+      <c r="K16" s="20"/>
+      <c r="L16" s="23"/>
+      <c r="M16" s="23"/>
+    </row>
+    <row r="17" spans="2:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="23"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="H17" s="20"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="20"/>
+      <c r="K17" s="20"/>
+      <c r="L17" s="23"/>
+      <c r="M17" s="23"/>
+    </row>
+    <row r="18" spans="2:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="20"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="20"/>
+      <c r="G18" s="20"/>
+      <c r="H18" s="20"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="20"/>
+      <c r="K18" s="20"/>
+      <c r="L18" s="20"/>
+      <c r="M18" s="20"/>
+    </row>
+    <row r="19" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="D19" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="E19" s="10"/>
+      <c r="F19" s="20"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="20"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="10"/>
+      <c r="K19" s="10"/>
+      <c r="L19" s="23"/>
+      <c r="M19" s="23"/>
+    </row>
+    <row r="20" spans="2:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="23"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="E20" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="F20" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="G20" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="H20" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="I20" s="20"/>
+      <c r="J20" s="10"/>
+      <c r="K20" s="10"/>
+      <c r="L20" s="23"/>
+      <c r="M20" s="23"/>
+    </row>
+    <row r="21" spans="2:13" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="23"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="E21" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="F21" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="I21" s="20"/>
+      <c r="J21" s="20"/>
+      <c r="K21" s="20"/>
+      <c r="L21" s="23"/>
+      <c r="M21" s="23"/>
+    </row>
+    <row r="22" spans="2:13" ht="23.85" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="23"/>
+      <c r="C22" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="D22" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="E22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="20"/>
+      <c r="I22" s="20"/>
+      <c r="J22" s="20"/>
+      <c r="K22" s="20"/>
+      <c r="L22" s="23"/>
+      <c r="M22" s="23"/>
+    </row>
+    <row r="23" spans="2:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B23" s="23"/>
+      <c r="C23" s="25"/>
+      <c r="D23" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="E23" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="F23" s="17"/>
+      <c r="G23" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="H23" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="I23" s="20"/>
+      <c r="J23" s="20"/>
+      <c r="K23" s="20"/>
+      <c r="L23" s="23"/>
+      <c r="M23" s="23"/>
+    </row>
+    <row r="24" spans="2:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B24" s="23"/>
+      <c r="C24" s="25"/>
+      <c r="D24" s="20"/>
+      <c r="E24" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="H24" s="10"/>
+      <c r="I24" s="20"/>
+      <c r="J24" s="20"/>
+      <c r="K24" s="20"/>
+      <c r="L24" s="23"/>
+      <c r="M24" s="23"/>
+    </row>
+    <row r="25" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B25" s="23"/>
+      <c r="C25" s="25"/>
+      <c r="D25" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="E25" s="20"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="20"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="20"/>
+      <c r="J25" s="20"/>
+      <c r="K25" s="20"/>
+      <c r="L25" s="23"/>
+      <c r="M25" s="23"/>
+    </row>
+    <row r="31" spans="2:13" ht="87.2" customHeight="1" x14ac:dyDescent="0.2"/>
+  </sheetData>
+  <mergeCells count="16">
+    <mergeCell ref="B12:B17"/>
+    <mergeCell ref="C12:C14"/>
+    <mergeCell ref="L12:M17"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="B19:B25"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="L19:M25"/>
+    <mergeCell ref="C22:C25"/>
+    <mergeCell ref="B1:L1"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="B5:B10"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="L5:M10"/>
+    <mergeCell ref="C8:C10"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="B19" sqref="A19:XFD19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1480,26 +2147,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="35.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
     </row>
     <row r="2" spans="1:8" ht="35.25" x14ac:dyDescent="0.2">
-      <c r="A2" s="14"/>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
+      <c r="A2" s="13"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
     </row>
     <row r="3" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="33" t="s">
         <v>24</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -1516,7 +2183,7 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="30"/>
+      <c r="A4" s="34"/>
       <c r="B4" s="3" t="s">
         <v>16</v>
       </c>
@@ -1529,7 +2196,7 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="30"/>
+      <c r="A5" s="34"/>
       <c r="B5" s="3" t="s">
         <v>49</v>
       </c>
@@ -1538,7 +2205,7 @@
       <c r="E5" s="4"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="30"/>
+      <c r="A6" s="34"/>
       <c r="B6" s="3"/>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
@@ -1546,7 +2213,7 @@
     </row>
     <row r="7" spans="1:8" ht="7.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="8" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="29" t="s">
+      <c r="A8" s="33" t="s">
         <v>25</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -1563,7 +2230,7 @@
       </c>
     </row>
     <row r="9" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="29"/>
+      <c r="A9" s="33"/>
       <c r="B9" s="3" t="s">
         <v>50</v>
       </c>
@@ -1572,23 +2239,23 @@
       </c>
     </row>
     <row r="10" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="29"/>
+      <c r="A10" s="33"/>
       <c r="B10" s="3"/>
       <c r="E10" s="4"/>
     </row>
     <row r="11" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="29"/>
+      <c r="A11" s="33"/>
       <c r="B11" s="3"/>
       <c r="E11" s="4"/>
     </row>
     <row r="12" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="29"/>
+      <c r="A12" s="33"/>
       <c r="B12" s="3"/>
       <c r="E12" s="4"/>
     </row>
     <row r="13" spans="1:8" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="14" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="29" t="s">
+      <c r="A14" s="33" t="s">
         <v>32</v>
       </c>
       <c r="B14" s="2" t="s">
@@ -1601,38 +2268,38 @@
       </c>
     </row>
     <row r="15" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="29"/>
+      <c r="A15" s="33"/>
       <c r="B15" s="5" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="29"/>
+      <c r="A16" s="33"/>
       <c r="B16" s="1" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="29"/>
+      <c r="A17" s="33"/>
       <c r="B17" s="1" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="29"/>
+      <c r="A18" s="33"/>
       <c r="B18" s="1" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="29"/>
+      <c r="A19" s="33"/>
       <c r="B19" s="1" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="21" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="29" t="s">
+      <c r="A21" s="33" t="s">
         <v>36</v>
       </c>
       <c r="B21" s="2" t="s">
@@ -1643,7 +2310,7 @@
       <c r="E21" s="2"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="30"/>
+      <c r="A22" s="34"/>
       <c r="B22" s="1" t="s">
         <v>35</v>
       </c>
@@ -1652,7 +2319,7 @@
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="30"/>
+      <c r="A23" s="34"/>
       <c r="B23" s="1" t="s">
         <v>37</v>
       </c>
